--- a/backend/auxiliar/LIGHT_2025-02-26_20-09-08_R_1x1_-10.00_3.00s_0011.plate-coefs.xlsx
+++ b/backend/auxiliar/LIGHT_2025-02-26_20-09-08_R_1x1_-10.00_3.00s_0011.plate-coefs.xlsx
@@ -490,28 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.332171326536296e-14</v>
+        <v>1.332171330506763e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>7.14158096611102e-14</v>
+        <v>7.141580966772764e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>2.325077584871888e-16</v>
+        <v>2.32507759180166e-16</v>
       </c>
       <c r="F2" t="n">
-        <v>1.246441016563949e-15</v>
+        <v>1.246441016679445e-15</v>
       </c>
       <c r="G2" t="n">
-        <v>2.734339093342572e-19</v>
+        <v>3.467469760897935e-27</v>
       </c>
       <c r="H2" t="n">
-        <v>8.329273194359423e-23</v>
+        <v>1.056251691753164e-30</v>
       </c>
       <c r="I2" t="n">
-        <v>2.006052698808214e-19</v>
+        <v>5.548221254641606e-28</v>
       </c>
       <c r="J2" t="n">
-        <v>6.110785970671214e-23</v>
+        <v>1.690084842994701e-31</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.296647297002632e-13</v>
+        <v>-1.296647296704847e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.592537950471768e-14</v>
+        <v>-5.592537949727305e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.263076456978073e-15</v>
+        <v>-2.263076456458339e-15</v>
       </c>
       <c r="F3" t="n">
-        <v>-9.760820077846791e-16</v>
+        <v>-9.760820076547458e-16</v>
       </c>
       <c r="G3" t="n">
-        <v>4.728155530255588e-19</v>
+        <v>5.995868020137154e-27</v>
       </c>
       <c r="H3" t="n">
-        <v>1.440278537976714e-22</v>
+        <v>1.826445845675821e-30</v>
       </c>
       <c r="I3" t="n">
-        <v>3.468819644552361e-19</v>
+        <v>9.593855082599533e-28</v>
       </c>
       <c r="J3" t="n">
-        <v>1.056662889828988e-22</v>
+        <v>2.92245538106907e-31</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-7.939107121113105e-14</v>
+        <v>-7.939107120285925e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>7.505156271037596e-14</v>
+        <v>7.505156271203032e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.385635589319519e-15</v>
+        <v>-1.385635589175149e-15</v>
       </c>
       <c r="F4" t="n">
-        <v>1.30989687806306e-15</v>
+        <v>1.309896878091934e-15</v>
       </c>
       <c r="G4" t="n">
-        <v>9.329368247555166e-19</v>
+        <v>1.183075733563597e-26</v>
       </c>
       <c r="H4" t="n">
-        <v>2.841888083810302e-22</v>
+        <v>3.603854773704103e-30</v>
       </c>
       <c r="I4" t="n">
-        <v>6.844507470470842e-19</v>
+        <v>1.893013171975998e-27</v>
       </c>
       <c r="J4" t="n">
-        <v>2.084956205365679e-22</v>
+        <v>5.766447880695814e-31</v>
       </c>
     </row>
     <row r="5">
@@ -595,25 +595,25 @@
         <v>-5.633992910972136e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.454656274705668e-15</v>
+        <v>-4.454656279255161e-15</v>
       </c>
       <c r="E5" t="n">
         <v>-9.833172633048352e-16</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.77484190382389e-17</v>
+        <v>-7.774841911764253e-17</v>
       </c>
       <c r="G5" t="n">
-        <v>1.643509503205031e-18</v>
+        <v>2.084167072762481e-26</v>
       </c>
       <c r="H5" t="n">
-        <v>5.006416242612518e-22</v>
+        <v>6.348735961093243e-30</v>
       </c>
       <c r="I5" t="n">
-        <v>1.205763645938678e-18</v>
+        <v>3.334829385312511e-27</v>
       </c>
       <c r="J5" t="n">
-        <v>3.672966106984547e-22</v>
+        <v>1.015847122782792e-30</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.980989305776345e-11</v>
+        <v>5.980989307131598e-11</v>
       </c>
       <c r="D6" t="n">
         <v>1.512563388663448e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>1.043879559123671e-12</v>
+        <v>1.043879559360207e-12</v>
       </c>
       <c r="F6" t="n">
         <v>2.639921127729984e-12</v>
       </c>
       <c r="G6" t="n">
-        <v>3.054332430400956e-13</v>
+        <v>3.873259672851519e-21</v>
       </c>
       <c r="H6" t="n">
-        <v>9.304028641196059e-17</v>
+        <v>1.179862367707941e-24</v>
       </c>
       <c r="I6" t="n">
-        <v>2.240816374962916e-13</v>
+        <v>6.197516668781569e-22</v>
       </c>
       <c r="J6" t="n">
-        <v>6.825917023570093e-17</v>
+        <v>1.887871536729359e-25</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.51644272897234e-09</v>
+        <v>-2.516442728979116e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.243148943750493e-11</v>
+        <v>-7.243148944089306e-11</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.392021105843863e-11</v>
+        <v>-4.39202110585569e-11</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.264167972807957e-12</v>
+        <v>-1.264167972867091e-12</v>
       </c>
       <c r="G7" t="n">
-        <v>8.524372565599426e-13</v>
+        <v>1.080992630863166e-20</v>
       </c>
       <c r="H7" t="n">
-        <v>2.596672376233502e-16</v>
+        <v>3.292891860219835e-24</v>
       </c>
       <c r="I7" t="n">
-        <v>6.253920968508427e-13</v>
+        <v>1.729672269474336e-21</v>
       </c>
       <c r="J7" t="n">
-        <v>1.90505326897703e-16</v>
+        <v>5.268883038038928e-25</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.679242692926528e-10</v>
+        <v>1.679242692841825e-10</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.04755585032568e-09</v>
+        <v>-1.047555850332456e-09</v>
       </c>
       <c r="E8" t="n">
-        <v>2.930831393162401e-12</v>
+        <v>2.930831393014566e-12</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.828329868671202e-11</v>
+        <v>-1.828329868683029e-11</v>
       </c>
       <c r="G8" t="n">
-        <v>1.013997098253907e-12</v>
+        <v>1.285869877804932e-20</v>
       </c>
       <c r="H8" t="n">
-        <v>3.088811797413147e-16</v>
+        <v>3.916983643583886e-24</v>
       </c>
       <c r="I8" t="n">
-        <v>7.439207596777397e-13</v>
+        <v>2.057491796235084e-21</v>
       </c>
       <c r="J8" t="n">
-        <v>2.266112223388012e-16</v>
+        <v>6.267478422014516e-25</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.785042454398373e-06</v>
+        <v>8.785042454637765e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0005433623298607519</v>
+        <v>-0.0005433623298607164</v>
       </c>
       <c r="E9" t="n">
-        <v>1.533279157567354e-07</v>
+        <v>1.533279157609136e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>-9.483461687377623e-06</v>
+        <v>-9.483461687377001e-06</v>
       </c>
       <c r="G9" t="n">
-        <v>4.242712002797286e-06</v>
+        <v>5.380267432710536e-14</v>
       </c>
       <c r="H9" t="n">
-        <v>1.292403983190208e-09</v>
+        <v>1.638923183114742e-17</v>
       </c>
       <c r="I9" t="n">
-        <v>3.112673144380628e-06</v>
+        <v>8.608846272415781e-15</v>
       </c>
       <c r="J9" t="n">
-        <v>9.48174461880608e-10</v>
+        <v>2.622404538843719e-18</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0005984487721298615</v>
+        <v>0.0005984487721296741</v>
       </c>
       <c r="D10" t="n">
-        <v>8.10889356209557e-06</v>
+        <v>8.108893562065213e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>1.044490147818336e-05</v>
+        <v>1.044490147818009e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>1.41526891352339e-07</v>
+        <v>1.415268913518091e-07</v>
       </c>
       <c r="G10" t="n">
-        <v>5.610791386332159e-06</v>
+        <v>7.115156095373072e-14</v>
       </c>
       <c r="H10" t="n">
-        <v>1.709144795065992e-09</v>
+        <v>2.167400491152217e-17</v>
       </c>
       <c r="I10" t="n">
-        <v>4.116366997204527e-06</v>
+        <v>1.138480304099865e-14</v>
       </c>
       <c r="J10" t="n">
-        <v>1.253917093583604e-09</v>
+        <v>3.468009327128881e-18</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>142.5323954537306</v>
+        <v>142.5323954537305</v>
       </c>
       <c r="D11" t="n">
-        <v>24.79684442647157</v>
+        <v>24.79684442647156</v>
       </c>
       <c r="E11" t="n">
-        <v>2.487659591422196</v>
+        <v>2.487659591422195</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4327865793467339</v>
+        <v>0.4327865793467336</v>
       </c>
       <c r="G11" t="n">
-        <v>2.849915108709418</v>
+        <v>3.614034003549959e-08</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008681337870262199</v>
+        <v>1.100897713182817e-11</v>
       </c>
       <c r="I11" t="n">
-        <v>2.090845246341423</v>
+        <v>5.78273544000593e-09</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0006369078841138293</v>
+        <v>1.761521949043763e-12</v>
       </c>
     </row>
   </sheetData>
